--- a/main_pcb/Project Outputs for Main/bom.xlsx
+++ b/main_pcb/Project Outputs for Main/bom.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/762931f48acda001/00_opensolar/main_pcb/Project Outputs for Main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/762931f48acda001/00_opensolar/OpenOne/main_pcb/Project Outputs for Main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{914EFAE7-D94E-4FB7-BABC-62B8CDE8F11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79FA0A73-7B92-4A97-8E3E-902CED7BBAFD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{CD3EBE14-7D2A-4E48-93A7-B8EB6EACDEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B03AA380-338B-4571-8F0A-099821B4DCF7}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-10245" windowWidth="21840" windowHeight="13140" xr2:uid="{99786CA2-CACA-48D0-B991-66F08BBBFAFA}"/>
+    <workbookView xWindow="-21720" yWindow="-10245" windowWidth="21840" windowHeight="13290" xr2:uid="{5EB8DA0D-FE27-4844-A756-11DCB0FE5CA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_JLC" sheetId="1" r:id="rId1"/>
+    <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Comment</t>
   </si>
@@ -47,6 +48,21 @@
     <t>jlc</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cap Pol1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>SCMR22H155PSBB0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -68,6 +84,117 @@
     <t>C15850</t>
   </si>
   <si>
+    <t>LM4040D30FTA</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SOT23_LM4040</t>
+  </si>
+  <si>
+    <t>1SMB5918BT3G</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>C142361</t>
+  </si>
+  <si>
+    <t>BAT54CLT1G</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SOT23-DUODIODE</t>
+  </si>
+  <si>
+    <t>C14308</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>C72037</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>C72035</t>
+  </si>
+  <si>
+    <t>CIGW252010GL4R7MNE</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>INDUCTOR_2520 - duplicate1</t>
+  </si>
+  <si>
+    <t>C86070</t>
+  </si>
+  <si>
+    <t>Hall &amp; PV</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>FFC_8</t>
+  </si>
+  <si>
+    <t>ESP serial</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>HEADER-1X5</t>
+  </si>
+  <si>
+    <t>ST-LINK</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>HEADER-1X4</t>
+  </si>
+  <si>
+    <t>roll motor</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>HEADER-1X2</t>
+  </si>
+  <si>
+    <t>pitch motor</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>PMV35EPER</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
@@ -134,6 +261,15 @@
     <t>C17714</t>
   </si>
   <si>
+    <t>TEST_POINT</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP6, TP8, TP9</t>
+  </si>
+  <si>
+    <t>TEST_POINT_PAD</t>
+  </si>
+  <si>
     <t>STM32L011K4T6</t>
   </si>
   <si>
@@ -144,6 +280,42 @@
   </si>
   <si>
     <t>C87904</t>
+  </si>
+  <si>
+    <t>ESP8266 ESP-12-E</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TB6552FNG</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SSOP16_TB6652</t>
+  </si>
+  <si>
+    <t>MIC7221YM5</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>PAM2301CAAB330</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT95P280X100-5N</t>
+  </si>
+  <si>
+    <t>C9051</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -179,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,16 +374,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,11 +712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36A5D63-0B03-4390-B3CA-ADDFE132604C}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14C4F54-EC1D-40BD-A9CE-0B4C93F8E2A2}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,9 +725,10 @@
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,145 +741,490 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
